--- a/image/substancepolymer.xlsx
+++ b/image/substancepolymer.xlsx
@@ -662,42 +662,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="72.52734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="74.19140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="69.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="71.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/substancepolymer.xlsx
+++ b/image/substancepolymer.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="161">
   <si>
     <t>Path</t>
   </si>
@@ -156,7 +156,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -340,10 +340,6 @@
   </si>
   <si>
     <t>SubstancePolymer.modification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>SubstancePolymer.monomerSet</t>
@@ -662,42 +658,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="72.52734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="71.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="69.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2051,7 +2047,7 @@
         <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>40</v>
@@ -2128,7 +2124,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2151,7 +2147,7 @@
         <v>46</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>40</v>
@@ -2208,7 +2204,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -2220,7 +2216,7 @@
         <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>37</v>
@@ -2228,7 +2224,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2251,13 +2247,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2308,7 +2304,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2323,12 +2319,12 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2357,7 +2353,7 @@
         <v>91</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>93</v>
@@ -2410,7 +2406,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2425,16 +2421,16 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2456,10 +2452,10 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>93</v>
@@ -2514,7 +2510,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2534,7 +2530,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2614,7 +2610,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
@@ -2634,7 +2630,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2657,7 +2653,7 @@
         <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>40</v>
@@ -2714,7 +2710,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2726,7 +2722,7 @@
         <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>37</v>
@@ -2734,7 +2730,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2757,13 +2753,13 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2814,7 +2810,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
@@ -2829,12 +2825,12 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2863,7 +2859,7 @@
         <v>91</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>93</v>
@@ -2916,7 +2912,7 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
@@ -2931,16 +2927,16 @@
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -2962,10 +2958,10 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>93</v>
@@ -3020,7 +3016,7 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>38</v>
@@ -3040,7 +3036,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3120,7 +3116,7 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>38</v>
@@ -3140,7 +3136,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3220,7 +3216,7 @@
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
@@ -3240,7 +3236,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3263,7 +3259,7 @@
         <v>46</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>40</v>
@@ -3320,7 +3316,7 @@
         <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>38</v>
@@ -3340,7 +3336,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3363,7 +3359,7 @@
         <v>46</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>40</v>
@@ -3420,7 +3416,7 @@
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>38</v>
@@ -3440,7 +3436,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3463,7 +3459,7 @@
         <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>40</v>
@@ -3520,7 +3516,7 @@
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>38</v>
@@ -3532,7 +3528,7 @@
         <v>37</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>37</v>
@@ -3540,7 +3536,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3563,13 +3559,13 @@
         <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3620,7 +3616,7 @@
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>38</v>
@@ -3635,12 +3631,12 @@
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3669,7 +3665,7 @@
         <v>91</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>93</v>
@@ -3722,7 +3718,7 @@
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>38</v>
@@ -3737,16 +3733,16 @@
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -3768,10 +3764,10 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>93</v>
@@ -3826,7 +3822,7 @@
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>38</v>
@@ -3846,7 +3842,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3869,7 +3865,7 @@
         <v>46</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>40</v>
@@ -3926,7 +3922,7 @@
         <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>38</v>
@@ -3946,7 +3942,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -3969,7 +3965,7 @@
         <v>46</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>40</v>
@@ -4026,7 +4022,7 @@
         <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>38</v>
@@ -4046,7 +4042,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4126,7 +4122,7 @@
         <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>38</v>
@@ -4146,7 +4142,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4169,7 +4165,7 @@
         <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>40</v>
@@ -4226,7 +4222,7 @@
         <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>38</v>
@@ -4238,7 +4234,7 @@
         <v>37</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>37</v>
@@ -4246,7 +4242,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4269,13 +4265,13 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4326,7 +4322,7 @@
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>38</v>
@@ -4341,12 +4337,12 @@
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4375,7 +4371,7 @@
         <v>91</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>93</v>
@@ -4428,7 +4424,7 @@
         <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>38</v>
@@ -4443,16 +4439,16 @@
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -4474,10 +4470,10 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>93</v>
@@ -4532,7 +4528,7 @@
         <v>37</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>38</v>
@@ -4552,7 +4548,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4632,7 +4628,7 @@
         <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>38</v>
@@ -4652,7 +4648,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4675,7 +4671,7 @@
         <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>40</v>
@@ -4732,7 +4728,7 @@
         <v>37</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>38</v>
@@ -4752,7 +4748,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4775,7 +4771,7 @@
         <v>46</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>40</v>
@@ -4832,7 +4828,7 @@
         <v>37</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>38</v>
@@ -4852,7 +4848,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -4875,7 +4871,7 @@
         <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>40</v>
@@ -4932,7 +4928,7 @@
         <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>38</v>
@@ -4944,7 +4940,7 @@
         <v>37</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>37</v>
@@ -4952,7 +4948,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -4975,13 +4971,13 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5032,7 +5028,7 @@
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>38</v>
@@ -5047,12 +5043,12 @@
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5081,7 +5077,7 @@
         <v>91</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>93</v>
@@ -5134,7 +5130,7 @@
         <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>38</v>
@@ -5149,16 +5145,16 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5180,10 +5176,10 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>93</v>
@@ -5238,7 +5234,7 @@
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>38</v>
@@ -5258,7 +5254,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5338,7 +5334,7 @@
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>38</v>
@@ -5358,7 +5354,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5381,7 +5377,7 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>40</v>
@@ -5438,7 +5434,7 @@
         <v>37</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>38</v>
@@ -5458,7 +5454,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5481,7 +5477,7 @@
         <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>40</v>
@@ -5538,7 +5534,7 @@
         <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>38</v>
@@ -5550,7 +5546,7 @@
         <v>37</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>37</v>
@@ -5558,7 +5554,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5581,13 +5577,13 @@
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5638,7 +5634,7 @@
         <v>37</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>38</v>
@@ -5653,12 +5649,12 @@
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -5687,7 +5683,7 @@
         <v>91</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>93</v>
@@ -5740,7 +5736,7 @@
         <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>38</v>
@@ -5755,16 +5751,16 @@
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -5786,10 +5782,10 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>93</v>
@@ -5844,7 +5840,7 @@
         <v>37</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>38</v>
@@ -5864,7 +5860,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -5944,7 +5940,7 @@
         <v>37</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>38</v>
@@ -5964,7 +5960,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -5987,7 +5983,7 @@
         <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>40</v>
@@ -6044,7 +6040,7 @@
         <v>37</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>38</v>
@@ -6064,7 +6060,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6087,7 +6083,7 @@
         <v>46</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>40</v>
@@ -6144,7 +6140,7 @@
         <v>37</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>38</v>
